--- a/Database/data java2/semester.xlsx
+++ b/Database/data java2/semester.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data java2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vuduc\Desktop\Project2\Database\data java2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568EBE94-CFDD-444C-B621-87ACCA8E50ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A4F98D-1D2E-4189-8C72-CA9DA46E0231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5517BEC8-8371-487B-BC94-00D1C7F5B6B5}"/>
+    <workbookView xWindow="2520" yWindow="3540" windowWidth="21600" windowHeight="12735" xr2:uid="{5517BEC8-8371-487B-BC94-00D1C7F5B6B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,40 +38,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Semester_no</t>
-  </si>
-  <si>
-    <t>Subject_ID</t>
-  </si>
-  <si>
-    <t>05.01.2019</t>
-  </si>
-  <si>
-    <t>05.07.2019</t>
-  </si>
-  <si>
-    <t>03.01.2020</t>
-  </si>
-  <si>
-    <t>08.07.2020</t>
-  </si>
-  <si>
-    <t>10.01.2021</t>
-  </si>
-  <si>
-    <t>02.07.2021</t>
-  </si>
-  <si>
-    <t>02.01.2022</t>
-  </si>
-  <si>
-    <t>04.07.2022</t>
-  </si>
-  <si>
-    <t>Semester_start_time</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>semester_no</t>
+  </si>
+  <si>
+    <t>start_year</t>
+  </si>
+  <si>
+    <t>subject_id</t>
+  </si>
+  <si>
+    <t>2019-05-01</t>
+  </si>
+  <si>
+    <t>2019-05-07</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021-02-07</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-04-07</t>
   </si>
 </sst>
 </file>
@@ -104,14 +107,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -127,7 +140,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -426,499 +439,556 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D15"/>
+      <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>20191</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO semester (semester_no, start_year,subject_id) VALUE ('",B2,"','",C2,"','",D2,"');")</f>
+        <v>INSERT INTO semester (semester_no, start_year,subject_id) VALUE ('20191','2019-05-01','1');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20191</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E15" si="0">_xlfn.CONCAT("INSERT INTO semester (semester_no, start_year,subject_id) VALUE ('",B3,"','",C3,"','",D3,"');")</f>
+        <v>INSERT INTO semester (semester_no, start_year,subject_id) VALUE ('20191','2019-05-01','2');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20192</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO semester (semester_no, start_year,subject_id) VALUE ('20192','2019-05-07','1');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20192</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO semester (semester_no, start_year,subject_id) VALUE ('20192','2019-05-07','2');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20201</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO semester (semester_no, start_year,subject_id) VALUE ('20201','2020-03-01','3');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20201</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO semester (semester_no, start_year,subject_id) VALUE ('20201','2020-03-01','4');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20202</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO semester (semester_no, start_year,subject_id) VALUE ('20202','2020-08-07','3');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20202</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO semester (semester_no, start_year,subject_id) VALUE ('20202','2020-08-07','4');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20211</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO semester (semester_no, start_year,subject_id) VALUE ('20211','2021-10-01','5');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20211</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO semester (semester_no, start_year,subject_id) VALUE ('20211','2021-10-01','6');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>20191</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>20191</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20192</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>20192</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>20201</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B12" s="2">
+        <v>20212</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>20201</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO semester (semester_no, start_year,subject_id) VALUE ('20212','2021-02-07','5');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>20212</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>20202</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO semester (semester_no, start_year,subject_id) VALUE ('20212','2021-02-07','6');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20221</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>20202</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO semester (semester_no, start_year,subject_id) VALUE ('20221','2022-02-01','7');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20222</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>20211</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>20211</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>20212</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>20212</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>20221</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>20222</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO semester (semester_no, start_year,subject_id) VALUE ('20222','2022-04-07','8');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="C55" s="4"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="C62" s="4"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="C63" s="4"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>